--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col1a1-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col1a1-Itga5.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.108069666666667</v>
+        <v>26.81310566666667</v>
       </c>
       <c r="H2">
-        <v>27.324209</v>
+        <v>80.439317</v>
       </c>
       <c r="I2">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="J2">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N2">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O2">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P2">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q2">
-        <v>284.4355858018718</v>
+        <v>1230.880891449275</v>
       </c>
       <c r="R2">
-        <v>2559.920272216846</v>
+        <v>11077.92802304348</v>
       </c>
       <c r="S2">
-        <v>0.0004459700474071061</v>
+        <v>0.001786802278559421</v>
       </c>
       <c r="T2">
-        <v>0.0004459700474071062</v>
+        <v>0.001786802278559422</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.108069666666667</v>
+        <v>26.81310566666667</v>
       </c>
       <c r="H3">
-        <v>27.324209</v>
+        <v>80.439317</v>
       </c>
       <c r="I3">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="J3">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>121.337348</v>
       </c>
       <c r="O3">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P3">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q3">
-        <v>368.3830062508592</v>
+        <v>1084.477044412369</v>
       </c>
       <c r="R3">
-        <v>3315.447056257733</v>
+        <v>9760.293399711316</v>
       </c>
       <c r="S3">
-        <v>0.0005775922386733469</v>
+        <v>0.001574275843798215</v>
       </c>
       <c r="T3">
-        <v>0.0005775922386733471</v>
+        <v>0.001574275843798215</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.108069666666667</v>
+        <v>26.81310566666667</v>
       </c>
       <c r="H4">
-        <v>27.324209</v>
+        <v>80.439317</v>
       </c>
       <c r="I4">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="J4">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N4">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O4">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P4">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q4">
-        <v>104.7295975016732</v>
+        <v>342.1833578313384</v>
       </c>
       <c r="R4">
-        <v>942.566377515059</v>
+        <v>3079.650220482045</v>
       </c>
       <c r="S4">
-        <v>0.0001642068218400857</v>
+        <v>0.0004967288124346884</v>
       </c>
       <c r="T4">
-        <v>0.0001642068218400857</v>
+        <v>0.0004967288124346886</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.108069666666667</v>
+        <v>26.81310566666667</v>
       </c>
       <c r="H5">
-        <v>27.324209</v>
+        <v>80.439317</v>
       </c>
       <c r="I5">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="J5">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N5">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O5">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P5">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q5">
-        <v>231.0684606823462</v>
+        <v>454.931475074762</v>
       </c>
       <c r="R5">
-        <v>2079.616146141116</v>
+        <v>4094.383275672858</v>
       </c>
       <c r="S5">
-        <v>0.0003622950766665809</v>
+        <v>0.0006603990702096961</v>
       </c>
       <c r="T5">
-        <v>0.000362295076666581</v>
+        <v>0.0006603990702096962</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5771.873535333332</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H6">
         <v>17315.620606</v>
       </c>
       <c r="I6">
-        <v>0.9822909543423312</v>
+        <v>0.9726032482643521</v>
       </c>
       <c r="J6">
-        <v>0.9822909543423313</v>
+        <v>0.9726032482643523</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N6">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O6">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P6">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q6">
-        <v>180249.6346953931</v>
+        <v>264963.2955922626</v>
       </c>
       <c r="R6">
-        <v>1622246.712258537</v>
+        <v>2384669.660330364</v>
       </c>
       <c r="S6">
-        <v>0.2826156154251815</v>
+        <v>0.3846326834608909</v>
       </c>
       <c r="T6">
-        <v>0.2826156154251815</v>
+        <v>0.3846326834608911</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5771.873535333332</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H7">
         <v>17315.620606</v>
       </c>
       <c r="I7">
-        <v>0.9822909543423312</v>
+        <v>0.9726032482643521</v>
       </c>
       <c r="J7">
-        <v>0.9822909543423313</v>
+        <v>0.9726032482643523</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>121.337348</v>
       </c>
       <c r="O7">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P7">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q7">
         <v>233447.942589577</v>
@@ -883,10 +883,10 @@
         <v>2101031.483306193</v>
       </c>
       <c r="S7">
-        <v>0.3660258955652796</v>
+        <v>0.3388835740661548</v>
       </c>
       <c r="T7">
-        <v>0.3660258955652797</v>
+        <v>0.3388835740661549</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5771.873535333332</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H8">
         <v>17315.620606</v>
       </c>
       <c r="I8">
-        <v>0.9822909543423312</v>
+        <v>0.9726032482643521</v>
       </c>
       <c r="J8">
-        <v>0.9822909543423313</v>
+        <v>0.9726032482643523</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N8">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O8">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P8">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q8">
-        <v>66368.17836366493</v>
+        <v>73659.46682384926</v>
       </c>
       <c r="R8">
-        <v>597313.6052729845</v>
+        <v>662935.2014146434</v>
       </c>
       <c r="S8">
-        <v>0.1040594817548042</v>
+        <v>0.1069274079016359</v>
       </c>
       <c r="T8">
-        <v>0.1040594817548042</v>
+        <v>0.106927407901636</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5771.873535333332</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H9">
         <v>17315.620606</v>
       </c>
       <c r="I9">
-        <v>0.9822909543423312</v>
+        <v>0.9726032482643521</v>
       </c>
       <c r="J9">
-        <v>0.9822909543423313</v>
+        <v>0.9726032482643523</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N9">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O9">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P9">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q9">
-        <v>146430.3614127653</v>
+        <v>97929.9814806051</v>
       </c>
       <c r="R9">
-        <v>1317873.252714888</v>
+        <v>881369.833325446</v>
       </c>
       <c r="S9">
-        <v>0.2295899615970657</v>
+        <v>0.1421595828356704</v>
       </c>
       <c r="T9">
-        <v>0.2295899615970658</v>
+        <v>0.1421595828356705</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>93.677025</v>
+        <v>132.4457753333333</v>
       </c>
       <c r="H10">
-        <v>281.031075</v>
+        <v>397.337326</v>
       </c>
       <c r="I10">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163987</v>
       </c>
       <c r="J10">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163988</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N10">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O10">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P10">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q10">
-        <v>2925.43650380345</v>
+        <v>6080.048168894215</v>
       </c>
       <c r="R10">
-        <v>26328.92853423105</v>
+        <v>54720.43352004793</v>
       </c>
       <c r="S10">
-        <v>0.004586827814141665</v>
+        <v>0.0088260724473022</v>
       </c>
       <c r="T10">
-        <v>0.004586827814141665</v>
+        <v>0.008826072447302203</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>93.677025</v>
+        <v>132.4457753333333</v>
       </c>
       <c r="H11">
-        <v>281.031075</v>
+        <v>397.337326</v>
       </c>
       <c r="I11">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163987</v>
       </c>
       <c r="J11">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163988</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>121.337348</v>
       </c>
       <c r="O11">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P11">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q11">
-        <v>3788.840594009901</v>
+        <v>5356.873044250161</v>
       </c>
       <c r="R11">
-        <v>34099.5653460891</v>
+        <v>48211.85739825145</v>
       </c>
       <c r="S11">
-        <v>0.005940569688441017</v>
+        <v>0.007776278783684553</v>
       </c>
       <c r="T11">
-        <v>0.005940569688441018</v>
+        <v>0.007776278783684556</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>93.677025</v>
+        <v>132.4457753333333</v>
       </c>
       <c r="H12">
-        <v>281.031075</v>
+        <v>397.337326</v>
       </c>
       <c r="I12">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163987</v>
       </c>
       <c r="J12">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163988</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N12">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O12">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P12">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q12">
-        <v>1077.149987039425</v>
+        <v>1690.245833420057</v>
       </c>
       <c r="R12">
-        <v>9694.349883354826</v>
+        <v>15212.21250078051</v>
       </c>
       <c r="S12">
-        <v>0.001688876690412255</v>
+        <v>0.002453637169494548</v>
       </c>
       <c r="T12">
-        <v>0.001688876690412255</v>
+        <v>0.002453637169494548</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>93.677025</v>
+        <v>132.4457753333333</v>
       </c>
       <c r="H13">
-        <v>281.031075</v>
+        <v>397.337326</v>
       </c>
       <c r="I13">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163987</v>
       </c>
       <c r="J13">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163988</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N13">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O13">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P13">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q13">
-        <v>2376.5525254237</v>
+        <v>2247.175418203036</v>
       </c>
       <c r="R13">
-        <v>21388.9727288133</v>
+        <v>20224.57876382733</v>
       </c>
       <c r="S13">
-        <v>0.003726225884995121</v>
+        <v>0.003262101301158572</v>
       </c>
       <c r="T13">
-        <v>0.003726225884995122</v>
+        <v>0.003262101301158573</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.272029666666667</v>
+        <v>3.326003</v>
       </c>
       <c r="H14">
-        <v>3.816089</v>
+        <v>9.978009</v>
       </c>
       <c r="I14">
-        <v>0.0002164813950916887</v>
+        <v>0.0005604560290058679</v>
       </c>
       <c r="J14">
-        <v>0.0002164813950916888</v>
+        <v>0.000560456029005868</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N14">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O14">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P14">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q14">
-        <v>39.72416951528511</v>
+        <v>152.6833030271613</v>
       </c>
       <c r="R14">
-        <v>357.5175256375659</v>
+        <v>1374.149727244452</v>
       </c>
       <c r="S14">
-        <v>6.228401313427724E-05</v>
+        <v>0.0002216419766056244</v>
       </c>
       <c r="T14">
-        <v>6.228401313427724E-05</v>
+        <v>0.0002216419766056245</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.272029666666667</v>
+        <v>3.326003</v>
       </c>
       <c r="H15">
-        <v>3.816089</v>
+        <v>9.978009</v>
       </c>
       <c r="I15">
-        <v>0.0002164813950916887</v>
+        <v>0.0005604560290058679</v>
       </c>
       <c r="J15">
-        <v>0.0002164813950916888</v>
+        <v>0.000560456029005868</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>121.337348</v>
       </c>
       <c r="O15">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P15">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q15">
-        <v>51.44823544355245</v>
+        <v>134.5227944866813</v>
       </c>
       <c r="R15">
-        <v>463.034118991972</v>
+        <v>1210.705150380132</v>
       </c>
       <c r="S15">
-        <v>8.066632005657449E-05</v>
+        <v>0.0001952793624279677</v>
       </c>
       <c r="T15">
-        <v>8.066632005657452E-05</v>
+        <v>0.0001952793624279677</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.272029666666667</v>
+        <v>3.326003</v>
       </c>
       <c r="H16">
-        <v>3.816089</v>
+        <v>9.978009</v>
       </c>
       <c r="I16">
-        <v>0.0002164813950916887</v>
+        <v>0.0005604560290058679</v>
       </c>
       <c r="J16">
-        <v>0.0002164813950916888</v>
+        <v>0.000560456029005868</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N16">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O16">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P16">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q16">
-        <v>14.62649714765989</v>
+        <v>42.44576845538501</v>
       </c>
       <c r="R16">
-        <v>131.638474328939</v>
+        <v>382.0119160984651</v>
       </c>
       <c r="S16">
-        <v>2.293306446854182E-05</v>
+        <v>6.161619399419606E-05</v>
       </c>
       <c r="T16">
-        <v>2.293306446854182E-05</v>
+        <v>6.161619399419609E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.272029666666667</v>
+        <v>3.326003</v>
       </c>
       <c r="H17">
-        <v>3.816089</v>
+        <v>9.978009</v>
       </c>
       <c r="I17">
-        <v>0.0002164813950916887</v>
+        <v>0.0005604560290058679</v>
       </c>
       <c r="J17">
-        <v>0.0002164813950916888</v>
+        <v>0.000560456029005868</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N17">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O17">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P17">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q17">
-        <v>32.27093640869289</v>
+        <v>56.43148800827399</v>
       </c>
       <c r="R17">
-        <v>290.438427678236</v>
+        <v>507.883392074466</v>
       </c>
       <c r="S17">
-        <v>5.059799743229515E-05</v>
+        <v>8.19184959780797E-05</v>
       </c>
       <c r="T17">
-        <v>5.059799743229516E-05</v>
+        <v>8.191849597807974E-05</v>
       </c>
     </row>
   </sheetData>
